--- a/Data/EC/NIT-8230040068.xlsx
+++ b/Data/EC/NIT-8230040068.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0E3730-E35D-4E16-9613-4A534E39DB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6069DC08-A459-41FB-810F-3CB8EE5B22BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37AA3C7C-FA84-4B5C-95F9-091616080310}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EAB5B001-2A89-4747-A7D1-0EE5C7488C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,18 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9133964</t>
+  </si>
+  <si>
+    <t>WILMER MANUEL GUERRERO CALDERA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>33309461</t>
   </si>
   <si>
@@ -74,121 +86,142 @@
     <t>1801</t>
   </si>
   <si>
+    <t>1049323194</t>
+  </si>
+  <si>
+    <t>ARCADIO CARRASQUILLA NAVARRO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1102859904</t>
   </si>
   <si>
     <t>JORGE STEVEN MONDRAGON CARABALI</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>2206</t>
   </si>
   <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1137189938</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS VERGARA PABUENA</t>
+  </si>
+  <si>
+    <t>1002489360</t>
+  </si>
+  <si>
+    <t>EVA SANDRITH MONTES VELAIDES</t>
+  </si>
+  <si>
+    <t>1104010937</t>
+  </si>
+  <si>
+    <t>SHARIT PAOLA MERCADO GONZALEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -602,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E471BB99-6549-A5BA-6D04-E42343839C15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D482F63E-3182-2173-D4B3-FFEA9E9172FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,8 +986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6CE83-E3CB-4185-8485-4E69AAE3F2E3}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1898A05B-DA4E-4A3F-B265-E84E4ED00C56}">
+  <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -978,7 +1011,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1023,7 +1056,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1055,12 +1088,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1481042</v>
+        <v>1697868</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1071,17 +1104,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1108,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1131,10 +1164,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1042</v>
+        <v>2054</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1540598</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1145,19 +1178,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>2054</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1540598</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1168,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>1042</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1191,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>1898</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1214,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1237,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1260,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1283,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1306,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1329,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1352,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1375,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1398,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1421,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1444,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1467,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1490,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1513,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1536,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1559,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1582,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1605,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1628,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1651,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1674,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1697,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1720,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1743,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1766,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1789,13 +1822,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1812,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1835,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1858,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1881,13 +1914,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1904,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1927,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1950,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1969,56 +2002,217 @@
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G53" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
+      <c r="D60" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="E60" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G60" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="H66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H65:J65"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
